--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Google Drive\Regis\Gui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicon/Google Drive/101 Tese Legibilidade/teseLegibildiadeCPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F8A0D9-7957-4B7E-89CE-CE62814750AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B345660-E15E-2448-88EF-FC4A7D259595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1605" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{AFEC8FCC-33B3-4B48-BA9B-E42BD6FE50D6}"/>
+    <workbookView xWindow="1200" yWindow="1600" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{AFEC8FCC-33B3-4B48-BA9B-E42BD6FE50D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Curtose&amp;Assimetria" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="###0"/>
-    <numFmt numFmtId="169" formatCode="###0.000"/>
-    <numFmt numFmtId="170" formatCode="###0.00"/>
-    <numFmt numFmtId="171" formatCode="###0.0000"/>
-    <numFmt numFmtId="172" formatCode="###0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="###0"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.00"/>
+    <numFmt numFmtId="167" formatCode="###0.0000"/>
+    <numFmt numFmtId="168" formatCode="###0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -492,143 +492,143 @@
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -950,244 +950,244 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>4614</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>7360</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>7360</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>7360</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>7360</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>7360</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>7360</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="39"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>2746</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9">
+      <c r="B5" s="39"/>
+      <c r="C5" s="6">
         <v>0.21848413694170393</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>1.3397649365627433</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>-6.4088278485150765E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>-0.19934114683398724</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0.93261332883010117</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.51650305102168059</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>0.41058298326519399</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9">
+      <c r="B6" s="39"/>
+      <c r="C6" s="6">
         <v>3.6049206389417936E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>2.8546195317175286E-2</v>
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9">
+      <c r="B7" s="39"/>
+      <c r="C7" s="6">
         <v>0.30170884718428281</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>2.0008480638385771</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>-0.88494769786549243</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>-1.4745767925037605</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>2.0951556641109987</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>-1.7336957851399755</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>0.65047635118997649</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9">
+      <c r="B8" s="39"/>
+      <c r="C8" s="6">
         <v>7.2082815536842149E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>5.7084642471180641E-2</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1212,227 +1212,227 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.75">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>4614</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>85</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>28.667967056783681</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <v>12.998501852435115</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="17">
         <v>7360</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>29</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>80</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>46.874999999999943</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <v>10.484686871106893</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="17">
         <v>7360</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>804536</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <v>900135000</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>52917180.190624997</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <v>121971307.00072744</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="17">
         <v>7360</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>7</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>3.4437500000000045</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>1.5762847233327175</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="17">
         <v>7360</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>31</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>18.624999999999993</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>9.1662855545921307</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="17">
         <v>7360</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <v>20</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>231</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>86.328124999999943</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="20">
         <v>35.490637473818296</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="17">
         <v>7360</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>0</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <v>0.37500000000000039</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="20">
         <v>0.48415581041295402</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>7360</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>5.9055454819360405</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="19">
         <v>8.9543076487262852</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <v>7.3179164376454811</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <v>0.53959563049593462</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="28" t="s">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="26">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="24">
         <v>4614</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1451,261 +1451,261 @@
       <selection activeCell="A11" sqref="A11:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="37"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="36">
         <v>1.0021968333399056</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="35">
         <f>1/C2</f>
         <v>0.9978079821579714</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="36">
         <v>2.1654452575129661</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="35">
         <f t="shared" ref="D3:D7" si="0">1/C3</f>
         <v>0.46179879012435032</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="36">
         <v>1.1575380006588611</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="35">
         <f t="shared" si="0"/>
         <v>0.86390252365866882</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="36">
         <v>1.7236495629843387</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="35">
         <f t="shared" si="0"/>
         <v>0.58016433356011943</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="36">
         <v>1.0023960976414763</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="35">
         <f t="shared" si="0"/>
         <v>0.99760962991863789</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="37">
         <v>1.3193407210977461</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="35">
         <f t="shared" si="0"/>
         <v>0.75795432067613178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="38">
         <f>AVERAGE(C2:C7)</f>
         <v>1.3950944122058822</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="49"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="31">
         <v>1.0060739938415701</v>
       </c>
       <c r="D13">
         <f>1/C13</f>
         <v>0.99396267682223116</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="31">
         <v>2.8294823629919952</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D21" si="1">1/C14</f>
         <v>0.35342153500563422</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="31">
         <v>1.3086741087833129</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>0.7641321802642751</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="31">
         <v>1.9377738192464498</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>0.51605610008131608</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="31">
         <v>1.0049294408046692</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>0.99509473938715332</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="31">
         <v>1.5116976439037577</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>0.66150794375628796</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="31">
         <v>1.4242077770309525</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>0.70214474048491793</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="31">
         <v>2.0549468106548634</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>0.48663060027394256</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="33">
         <v>1.2182071381640012</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
         <v>0.82087846038000722</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="38">
         <f>AVERAGE(C13:C21)</f>
         <v>1.5884436772690635</v>
       </c>
